--- a/team3/excel.xlsx
+++ b/team3/excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>store_name</t>
@@ -449,9 +454,29 @@
           <t>store_location</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>경도</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>위도</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>평가 요약</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>평가</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -469,9 +494,42 @@
           <t>제주 제주시 조천읍 남조로 1781 1층</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>126.6459368880007</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.51640963331459</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 205
+"재료가 신선해요" - 121
+"인테리어가 멋져요" - 105
+"특별한 메뉴가 있어요" - 104
+"매장이 넓어요" - 88
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 다양한 해산물 요리를 좋아하는 사람
+✅ 인스타그램 감성을 중요시하는 사람
+✅ 음식에 대한 기대치가 높은 사람
+✅ 가벼운 분위기에서 특별한 경험을 원하는 사람
+✅ 친구나 가족과 함께 소통하며 식사하는 것을 좋아하는 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 양이 많이 필요한 사람
+❎ 특정 메뉴를 고집하는 사람
+❎ 예약 없이 즉흥적으로 식사하고 싶은 사람
+❎ 가격 대비 양을 지나치게 따지는 사람
+❎ 조용하고 분위기가 엄숙한 식사를 선호하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,9 +547,36 @@
           <t>서울 강남구 논현로 742 7층</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>127.0291757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.5182989</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 특별한 occasion을 위한 로맨틱한 저녁을 계획하는 사람  
+✅ 독창적이고 창의적인 요리에 열린 마음을 가진 사람  
+✅ 아름다운 인테리어와 멋진 뷰를 즐기고 싶은 사람  
+✅ 다양한 와인과 음식 페어링을 경험하고 싶은 사람  
+✅ 장소와 분위기를 중요시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 전통적인 한식이나 일반적인 메뉴를 선호하는 사람  
+❎ 수량이 많은 푸짐한 식사를 기대하는 사람  
+❎ 바쁜 일정을 가진 즉흥적인 고객  
+❎ 가격 대비 양을 따지는 사람  
+❎ 조용하고 빠른 서비스를 선호하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,9 +594,42 @@
           <t>울산 중구 동천1길 40 세영이노세븐 지식산업센터 1층 C동 160호</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>129.3458688706276</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35.58455815</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 258
+"매장이 청결해요" - 112
+"혼밥하기 좋아요" - 107
+"친절해요" - 95
+"재료가 신선해요" - 87
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 쌀국수와 비빔밥을 좋아하는 사람  
+✅ 방아잎의 특색 있는 향을 즐길 수 있는 사람  
+✅ 다양한 메뉴를 시도해보는 것을 좋아하는 사람  
+✅ 편안한 분위기에서 식사하고 싶은 사람  
+✅ 고기 요리를 선호하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 친절한 서비스와 원활한 소통을 중시하는 사람  
+❎ 식사의 일관된 품질을 기대하는 사람  
+❎ 조용하고 차분한 식사를 원하는 사람  
+❎ 음식 서빙의 정확성을 중요하게 생각하는 사람  
+❎ 불친절한 경험을 피하고자 하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -529,9 +647,42 @@
           <t>서울 송파구 삼전로12길 4 101호</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>127.09084035</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.50672105</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 32
+"특별한 메뉴가 있어요" - 23
+"술이 다양해요" - 15
+"친절해요" - 13
+"기본 안주가 좋아요" - 7
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 새로운 맛과 창의적인 요리를 경험하고 싶은 사람  
+✅ 유명 셰프의 요리를 직접 맛보고 싶어하는 사람  
+✅ 다양한 술안주와 술 pairing을 즐기는 사람  
+✅ 고급스러운 분위기에서 특별한 시간을 보내고 싶은 사람  
+✅ 대기줄을 뚫고 예약하는 것을 즐기는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 간단하고 빠른 식사를 원하는 사람  
+❎ 가격 대비 가성비를 중시하는 사람  
+❎ 예약이 어려운 것을 싫어하는 사람  
+❎ 특정 메뉴를 빨리 먹고 싶은 사람  
+❎ 맵거나 간이 센 음식을 싫어하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -549,9 +700,42 @@
           <t>서울 송파구 새말로8길 13 2층</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>127.12682865</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.481548</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 439
+"특별한 메뉴가 있어요" - 291
+"인테리어가 멋져요" - 273
+"친절해요" - 258
+"매장이 청결해요" - 133
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 특별한 맛집 탐방을 즐기는 사람
+✅ 마라 요리를 좋아하는 사람
+✅ 기다리는 시간을 즐길 수 있는 사람
+✅ 셰프와의 소통을 중요시하는 사람
+✅ 다양한 메뉴를 경험하고 싶은 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 대기 시간을 싫어하는 사람
+❎ 자극적인 맛을 피하고 싶은 사람
+❎ 간단하고 빠른 식사를 원하는 사람
+❎ 특정한 메뉴에만 집중하고 싶은 사람
+❎ 조용한 분위기를 선호하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -569,9 +753,42 @@
           <t>서울 마포구 성미산로 165-1 1층 우측</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>126.9247881</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37.5650531</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 844
+"특별한 메뉴가 있어요" - 471
+"친절해요" - 454
+"재료가 신선해요" - 409
+"특별한 날 가기 좋아요" - 369
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 야키토리를 사랑하는 사람  
+✅ 다양한 맛을 경험하고 싶은 미식가  
+✅ 특별한 날에 고급스러운 식사를 원하는 사람  
+✅ 일본 음식에 관심이 많은 사람  
+✅ 독창적인 요리와 프레젠테이션을 즐기는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 대량으로 푸짐한 음식을 선호하는 사람  
+❎ 식사가 빠르게 끝나길 원하는 사람  
+❎ 낮은 가격대의 간편한 음식을 찾는 사람  
+❎ 자극적이거나 진한 맛을 중시하는 사람  
+❎ 전통적인 방식의 요리를 기대하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -589,9 +806,42 @@
           <t>서울 성동구 한림말길 33 2층</t>
         </is>
       </c>
+      <c r="E8" t="n">
+        <v>127.013307522954</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37.54041197647378</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 1234
+"재료가 신선해요" - 1061
+"특별한 메뉴가 있어요" - 884
+"친절해요" - 682
+"매장이 청결해요" - 373
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 건강한 채식 요리를 좋아하는 사람  
+✅ 다양한 채소 요리를 시도해보고 싶은 사람  
+✅ 특별한 음식 경험을 즐기는 사람  
+✅ 색다른 맛을 경험하고픈 식도락가  
+✅ 예약을 통해 편리하게 방문할 의향이 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 매운 음식이나 육류 위주의 식사를 선호하는 사람  
+❎ 간편하게 빠른 식사를 원하는 사람  
+❎ 복잡한 음식 메뉴에 부담을 느끼는 사람  
+❎ 기본적인 소스와 강한 맛을 예상하는 사람  
+❎ 식사 중 소음에 민감한 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -609,9 +859,42 @@
           <t>서울 강남구 도산대로15길 18 4층 네기다이닝라운지</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>127.0240919</v>
+      </c>
+      <c r="F9" t="n">
+        <v>37.5195085</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 150
+"특별한 메뉴가 있어요" - 97
+"재료가 신선해요" - 77
+"친절해요" - 73
+"인테리어가 멋져요" - 66
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 특별한 날을 기념하고 싶은 분  
+✅ 다양한 메뉴를 시도해보고 싶은 미식가  
+✅ 고급스러운 분위기에서 식사하고 싶은 분  
+✅ 정성 들여 만든 요리와 친절한 서비스에 감동하는 분  
+✅ 차별화된 일식 경험을 원하시는 분  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 가성비와 양을 우선시하는 분  
+❎ 빠르고 간편한 식사를 원하는 분  
+❎ 자극적인 맛을 선호하는 분  
+❎ 예약 없이 즉흥적으로 가고 싶은 분  
+❎ 일상적인 식사를 원하는 분  </t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -629,9 +912,42 @@
           <t>서울 영등포구 63로 50 한화금융센터_63</t>
         </is>
       </c>
+      <c r="E10" t="n">
+        <v>126.940251639948</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37.51984955</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 178
+"친절해요" - 137
+"뷰가 좋아요" - 135
+"특별한 날 가기 좋아요" - 112
+"특별한 메뉴가 있어요" - 78
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 기념일이나 특별한 날을 특별하게 보내고 싶은 사람  
+✅ 멋진 뷰에서 식사를 즐기고 싶은 사람  
+✅ 친절한 서비스를 받으며 소중한 추억을 만들고 싶은 사람  
+✅ 정성 가득한 코스 요리를 경험하고 싶은 사람  
+✅ 프로포즈나 돌잔치와 같은 프라이빗한 행사 장소를 찾고 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 대규모 모임이나 소란스러운 자리를 선호하는 사람  
+❎ 저렴한 가격에 많은 양을 원하시는 분  
+❎ 음식을 빠르게 서빙받고 싶어 하는 사람  
+❎ 일상적인 분위기의 식당을 좋아하는 사람  
+❎ 복잡한 메뉴에서 선택하기 어려워하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -649,9 +965,42 @@
           <t>광주 서구 상무대로 1104-20</t>
         </is>
       </c>
+      <c r="E11" t="n">
+        <v>126.8850964307517</v>
+      </c>
+      <c r="F11" t="n">
+        <v>35.15349471961628</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 653
+"주차하기 편해요" - 200
+"매장이 넓어요" - 180
+"특별한 메뉴가 있어요" - 156
+"재료가 신선해요" - 150
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 고소하고 깊은 맛의 면 요리를 즐기는 사람  
+✅ 평양냉면 같은 전통 음식을 좋아하는 사람  
+✅ 깔끔하고 자극적이지 않은 음식을 선호하는 사람  
+✅ 다양한 메뉴를 시도해보려는 사람  
+✅ 메밀면과 같은 건강한 식사를 찾는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 푸짐한 양의 식사를 원하는 사람  
+❎ 강한 간의 음식을 선호하는 사람  
+❎ 직원 서비스의 친절함을 중시하는 사람  
+❎ 고기 부위에 민감한 사람  
+❎ 변화를 꺼리는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -669,9 +1018,42 @@
           <t>서울 용산구 원효로83길 7-2 1층</t>
         </is>
       </c>
+      <c r="E12" t="n">
+        <v>126.9676874</v>
+      </c>
+      <c r="F12" t="n">
+        <v>37.5399628</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 25
+"특별한 메뉴가 있어요" - 16
+"재료가 신선해요" - 10
+"친절해요" - 10
+"인테리어가 멋져요" - 7
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 이탈리아 음식을 좋아하고 그에 대한 깊은 이해가 있는 사람  
+✅ 해산물 요리에 관심이 많은 사람  
+✅ 색다른 메뉴와 독창적인 요리를 즐기는 사람  
+✅ 예약을 통해 미리 계획을 세우는 것을 선호하는 사람  
+✅ 고급스러운 식사 경험을 원하고, 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 푸짐한 양을 선호하는 사람  
+❎ 즉흥적으로 식사하길 원하는 사람  
+❎ 가격 대비 양을 중시하는 사람  
+❎ 멋진 분위기를 원치 않거나 시끄러운 장소를 싫어하는 사람  
+❎ 간단하고 빠른 식사를 원하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -689,9 +1071,42 @@
           <t>서울 중구 을지로 157 대림상가 3층 가358,359</t>
         </is>
       </c>
+      <c r="E13" t="n">
+        <v>126.9954275</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37.5675231</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 149
+"특별한 메뉴가 있어요" - 93
+"인테리어가 멋져요" - 85
+"친절해요" - 72
+"재료가 신선해요" - 65
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 이국적인 맛과 다양한 향신료를 즐기는 사람  
+✅ 친구들과 함께 분위기 좋은 곳에서 식사하고 싶은 사람  
+✅ 다양한 사이드 메뉴를 경험하고 싶은 사람  
+✅ 맥주와 함께 맛있는 안주를 찾는 사람  
+✅ 특별한 경험을 통해 새로운 음식을 시도하고자 하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 대규모 모임이나 단체 식사를 계획하는 사람  
+❎ 매운 음식을 못 먹는 사람  
+❎ 예약 없이 즉흥적으로 방문하려는 사람  
+❎ 고급스러운 분위기에서 조용한 식사를 원하는 사람  
+❎ 가성비를 중시하며 가격 대비 양을 생각하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -709,9 +1124,42 @@
           <t>서울 강남구 봉은사로 130 노보텔 앰배서더 강남 LL층</t>
         </is>
       </c>
+      <c r="E14" t="n">
+        <v>127.0288746</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37.5051343</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 36
+"특별한 메뉴가 있어요" - 22
+"재료가 신선해요" - 19
+"친절해요" - 18
+"인테리어가 멋져요" - 12
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 고급 중식 요리를 즐기는 사람  
+✅ 특별한 행사나 기념일을 계획하는 사람  
+✅ 셰프의 요리 설명과 경험을 소중히 여기는 사람  
+✅ 깔끔하고 담백한 맛을 선호하는 사람  
+✅ 친절한 서비스와 좋은 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 부담없이 간단하게 식사하고 싶은 사람  
+❎ 기름진 또는 자극적인 음식을 선호하는 사람  
+❎ 대규모 인원이 함께 하는 단체 식사를 원하는 사람  
+❎ 푸짐한 식사량을 선호하는 사람  
+❎ 빠른 식사를 원하는 바쁜 사람</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -729,9 +1177,42 @@
           <t>서울 성동구 성수일로6길 7-1 1층 중앙감속기</t>
         </is>
       </c>
+      <c r="E15" t="n">
+        <v>127.0535045515569</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37.54469192128074</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 1611
+"특별한 메뉴가 있어요" - 1051
+"친절해요" - 757
+"인테리어가 멋져요" - 546
+"매장이 넓어요" - 440
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀
+✅ 다양한 퓨전 요리를 경험하고 싶은 사람  
+✅ 최현석 셰프의 요리를 좋아하는 팬  
+✅ 특별한 날에 고급스러운 식사를 즐기고 싶은 사람  
+✅ 새로운 맛 조합에 열려 있는 미식가  
+✅ 인스타그램에 멋진 음식 사진을 올리고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 전통적인 중식 요리를 선호하는 사람  
+❎ 가격에 민감한 가성비를 중요시하는 사람  
+❎ 미리 예약하는 것이 번거롭게 느껴지는 사람  
+❎ 대량의 음식을 한 번에 먹고 싶은 사람  
+❎ 소음이 없는 조용한 분위기를 선호하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -749,9 +1230,42 @@
           <t>경기 성남시 분당구 정자일로 197</t>
         </is>
       </c>
+      <c r="E16" t="n">
+        <v>127.1055083</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37.3679976</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 514
+"친절해요" - 204
+"재료가 신선해요" - 188
+"매장이 넓어요" - 169
+"특별한 메뉴가 있어요" - 156
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 다양한 중식 요리를 맛보고 싶은 사람  
+✅ 고급스러운 외식 경험을 즐기는 사람  
+✅ 친절한 서비스와 가족 친화적인 분위기를 선호하는 사람  
+✅ 싱싱하고 다양한 해물 요리를 좋아하는 사람  
+✅ 특별한 소스와 맛의 조화에 관심이 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 가성비 좋은 식사를 원하는 사람  
+❎ 양이 많지 않은 식사를 선호하는 사람  
+❎ 밍밍한 맛의 음식은 선호하지 않는 사람  
+❎ 빠른 식사와 간편한 메뉴를 원하는 사람  
+❎ 불친절한 서비스에 민감한 사람</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -769,9 +1283,42 @@
           <t>서울 서초구 사임당로 143 104-1, 104-2, 104-3호</t>
         </is>
       </c>
+      <c r="E17" t="n">
+        <v>127.0252641</v>
+      </c>
+      <c r="F17" t="n">
+        <v>37.4918897</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 138
+"특별한 메뉴가 있어요" - 83
+"친절해요" - 70
+"재료가 신선해요" - 55
+"인테리어가 멋져요" - 46
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 다양한 딤섬을 맛보고 싶은 사람  
+✅ 고급스러운 중식당에서 특별한 경험을 원하시는 분  
+✅ 셰프의 요리 철학에 관심이 많은 사람  
+✅ 식사의 속도보다 맛을 중요시하는 사람  
+✅ 웨이팅을 감수하며 인기 있는 맛집을 찾는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 음식이 빨리 나오는 것을 선호하는 사람  
+❎ 가격 대비 푸짐한 양을 기대하는 사람  
+❎ 다양한 메뉴를 한 번에 경험하고 싶은 사람  
+❎ 한정된 시간 내에 빠른 식사를 원하는 사람  
+❎ 딤섬 외 다른 메뉴에 대한 기대가 큰 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -789,9 +1336,42 @@
           <t>서울 강남구 도산대로45길 8-7 2층</t>
         </is>
       </c>
+      <c r="E18" t="n">
+        <v>127.0358737</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37.5228764</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 10
+"친절해요" - 5
+"특별한 메뉴가 있어요" - 5
+"재료가 신선해요" - 4
+"인테리어가 멋져요" - 3
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 이탈리안 요리에 관심이 있는 사람
+✅ 독창적인 요리법을 좋아하는 사람
+✅ 특별한 미식 경험을 추구하는 사람
+✅ 셰프의 열정과 노력을 느끼고 싶어하는 사람
+✅ 와인과 음식을 조화롭게 즐기고 싶은 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 간단하고 빠른 식사를 원하는 사람
+❎ 양이 많은 음식을 선호하는 사람
+❎ 비용 대비 만족도를 중시하는 사람
+❎ 시끄러운 분위기를 싫어하는 사람
+❎ 고급스러운 분위기보다는 캐주얼한 서비스를 선호하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -809,9 +1389,42 @@
           <t>서울 용산구 한강대로76길 11-40 1층</t>
         </is>
       </c>
+      <c r="E19" t="n">
+        <v>126.9737652</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.5416673</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 576
+"친절해요" - 298
+"특별한 메뉴가 있어요" - 269
+"인테리어가 멋져요" - 268
+"술이 다양해요" - 207
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 다양한 맛을 경험하고 싶은 사람  
+✅ 독특한 요리 조합에 관심이 있는 사람  
+✅ 친구나 가족과 함께 여러 메뉴를 나눠 먹고 싶은 사람  
+✅ 방송에 나온 맛집을 찾아가는 걸 즐기는 사람  
+✅ 친절한 서비스와 아늑한 분위기를 선호하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 길게 웨이팅하는 것을 싫어하는 사람  
+❎ 혼자서 간편하게 식사하려는 사람  
+❎ 음식을 빨리 받고 싶은 사람  
+❎ 매콤한 음식이나 자극적인 맛을 싫어하는 사람  
+❎ 조용하고 쾌적한 공간을 원하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -829,9 +1442,42 @@
           <t>서울 강남구 도산대로37길 21 1층 캐비스트리</t>
         </is>
       </c>
+      <c r="E20" t="n">
+        <v>127.0312016</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37.522493</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 77
+"인테리어가 멋져요" - 63
+"특별한 메뉴가 있어요" - 56
+"친절해요" - 54
+"재료가 신선해요" - 35
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 창의적이고 독특한 스페인 요리를 경험하고 싶은 사람  
+✅ 특별한 날을 기념하고 싶은 사람  
+✅ 고급스러운 분위기에서 식사하기를 원하는 사람  
+✅ 다양한 코스 요리를 즐기고 싶은 사람  
+✅ 친절한 서비스와 요리 설명을 중요시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많은 식사를 선호하는 사람  
+❎ 가격 대비 양을 따지는 사람  
+❎ 분위기가 시끄러운 곳을 싫어하는 사람  
+❎ 빠른 식사를 원하는 사람  
+❎ 특정한 식당의 유명 메뉴를 꼭 먹고 싶어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -849,9 +1495,42 @@
           <t>서울 중구 퇴계로85길 42 1층 라까예</t>
         </is>
       </c>
+      <c r="E21" t="n">
+        <v>127.0197598</v>
+      </c>
+      <c r="F21" t="n">
+        <v>37.5676327</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 378
+"재료가 신선해요" - 187
+"특별한 메뉴가 있어요" - 179
+"인테리어가 멋져요" - 139
+"친절해요" - 103
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 다양한 타코 종류를 경험하고 싶은 사람  
+✅ 신선한 재료와 매콤한 음식을 좋아하는 사람  
+✅ 분위기 좋은 힙한 식당을 선호하는 사람  
+✅ 고기와 또띠아의 조화를 즐기는 사람  
+✅ 친구나 가족과 함께 나눠 먹으며 즐기고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 푸짐하고 한 끼에 가득 채우고 싶은 사람  
+❎ 조용한 환경에서 식사하기를 원하는 사람  
+❎ 일정한 시간이 없는 바쁜 사람  
+❎ 가격 대비 양을 따지는 사람  
+❎ 미성년자와 함께하는 가족 식사 계획을 세우는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -869,9 +1548,42 @@
           <t>서울 송파구 올림픽로 300 롯데월드타워 81층</t>
         </is>
       </c>
+      <c r="E22" t="n">
+        <v>127.1031408</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37.5137223</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"뷰가 좋아요" - 455
+"음식이 맛있어요" - 452
+"친절해요" - 368
+"특별한 날 가기 좋아요" - 356
+"특별한 메뉴가 있어요" - 297
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 특별한 날을 기념하고자 하는 사람  
+✅ 조용하고 차분한 분위기에서 가족과 시간을 보내고 싶은 사람  
+✅ 다양한 한식과 현대적인 요리를 경험하고 싶은 사람  
+✅ 세심한 서비스와 좋은 분위기를 중시하는 사람  
+✅ 섬세한 맛의 조화를 즐기는 미식가  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 대규모 인원으로 시끄럽게 즐기려는 사람  
+❎ 간단하고 퀵한 식사를 원하시는 분  
+❎ 가격 대비 양이 많아야 만족하는 사람  
+❎ 즉흥적인 예약을 선호하고 싶으신 분  
+❎ 비싼 가격에 대한 부담감을 느끼는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -889,9 +1601,42 @@
           <t>서울 마포구 양화로 144 머큐어 앰버서더 호텔 4층</t>
         </is>
       </c>
+      <c r="E23" t="n">
+        <v>126.9224305</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37.5553277</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 552
+"특별한 메뉴가 있어요" - 354
+"친절해요" - 270
+"인테리어가 멋져요" - 265
+"매장이 청결해요" - 173
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 중식 요리를 좋아하는 사람
+✅ 다양한 딤섬을 시도해보고 싶은 사람
+✅ 친절한 서비스와 분위기를 중요시하는 사람
+✅ 새로운 맛을 도전하는 것을 즐기는 사람
+✅ 유명 셰프의 요리를 경험하고 싶은 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 간단하고 빠른 식사를 선호하는 사람
+❎ 매우 자극적인 맛을 원하는 사람
+❎ 특정 음식만을 고집하는 사람 (예: 마라딤섬)
+❎ 혼잡한 분위기를 싫어하는 사람
+❎ 짜고 맵고 자극적인 음식만 찾는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -909,9 +1654,42 @@
           <t>서울 성동구 성수이로 97 5층 일부</t>
         </is>
       </c>
+      <c r="E24" t="n">
+        <v>127.0574048790914</v>
+      </c>
+      <c r="F24" t="n">
+        <v>37.54537765160725</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"특별한 메뉴가 있어요" - 22
+"재료가 신선해요" - 21
+"음식이 맛있어요" - 20
+"특별한 날 가기 좋아요" - 11
+"인테리어가 멋져요" - 10
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 신선한 해산물을 좋아하는 사람  
+✅ 특별한 경험을 찾고 있는 사람  
+✅ 친절하고 유머 있는 서비스에 가치를 두는 사람  
+✅ 다양한 요리 방식을 즐기는 미식가  
+✅ 아름다운 뷰에서 식사를 즐기고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많고 푸짐한 식사를 선호하는 사람  
+❎ 대중적인 메뉴나 평범한 식사를 기대하는 사람  
+❎ 조용하고 신속한 식사를 원하는 사람  
+❎ 고비용 대비 가성비를 중시하는 사람  
+❎ 즉흥적인 지역 탐방을 즐기는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -929,9 +1707,42 @@
           <t>서울 성동구 독서당로 194 지하1층</t>
         </is>
       </c>
+      <c r="E25" t="n">
+        <v>127.0126206</v>
+      </c>
+      <c r="F25" t="n">
+        <v>37.5426788</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 264
+"특별한 메뉴가 있어요" - 150
+"인테리어가 멋져요" - 117
+"친절해요" - 111
+"특별한 날 가기 좋아요" - 88
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 생면 파스타와 독특한 소스를 좋아하는 사람  
+✅ 새로운 맛의 조화를 경험하고 싶은 사람  
+✅ 특별한 날 분위기 좋은 곳에서 식사하고 싶은 사람  
+✅ 다양한 요리의 식감과 맛을 즐기는 미식가  
+✅ 친절한 서비스를 받으며 여유롭게 식사하고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 간단하고 빠른 식사를 선호하는 사람  
+❎ 전통적인 맛을 고집하는 사람  
+❎ 푸짐한 양을 중요시하는 사람  
+❎ 특정 메뉴만을 선호하는 편식하는 사람  
+❎ 소음이 덜한 조용한 분위기를 원하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -949,9 +1760,42 @@
           <t>경기 안산시 단원구 광덕대로 155 123호</t>
         </is>
       </c>
+      <c r="E26" t="n">
+        <v>126.8290639</v>
+      </c>
+      <c r="F26" t="n">
+        <v>37.3104997</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 1971
+"인테리어가 멋져요" - 961
+"친절해요" - 888
+"특별한 메뉴가 있어요" - 690
+"재료가 신선해요" - 681
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 멕시코 음식을 좋아하는 사람  
+✅ 다양한 메뉴를 시도해보고 싶은 사람  
+✅ 친구나 가족과 함께 느긋하게 식사하고 싶은 사람  
+✅ 친구와 함께 간단히 한 잔 하며 즐길 장소를 찾는 사람  
+✅ 친절한 서비스와 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 매운 음식을 선호하지 않는 사람  
+❎ 음식의 양이 적거나 가벼운 식사를 원하는 사람  
+❎ 빠르고 간편한 식사를 찾는 사람  
+❎ 특정 재료에 대한 알레르기가 있는 사람  
+❎ 조용한 환경에서 식사를 원하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -969,9 +1813,42 @@
           <t>서울 강남구 선릉로 805 1층</t>
         </is>
       </c>
+      <c r="E27" t="n">
+        <v>127.0390969</v>
+      </c>
+      <c r="F27" t="n">
+        <v>37.5241725</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 326
+"재료가 신선해요" - 188
+"친절해요" - 137
+"특별한 메뉴가 있어요" - 134
+"인테리어가 멋져요" - 125
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 고소한 맛의 면 요리를 좋아하는 사람
+✅ 미슐랭 가이드에 관심이 있는 식도락가
+✅ 다양한 반찬을 즐기는 사람
+✅ 셀프 육수를 좋아하는 사람
+✅ 정갈하고 깔끔한 인테리어를 선호하는 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 양이 많은 식사를 원하는 사람
+❎ 혼잡한 분위기를 싫어하는 사람
+❎ 강한 맛이나 자극적인 음식을 선호하는 사람
+❎ 개인 공간을 중시하는 사람
+❎ 마감 시간 전에 서두르는 걸 싫어하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -989,9 +1866,36 @@
           <t>서울 중구 퇴계로48길 17 1층</t>
         </is>
       </c>
+      <c r="E28" t="n">
+        <v>127.0003069822912</v>
+      </c>
+      <c r="F28" t="n">
+        <v>37.56172309508165</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 한국 전통 발효음식에 관심이 있는 사람  
+✅ 새로운 맛의 경험을 좋아하는 사람  
+✅ 디저트로 빙수를 즐기는 사람  
+✅ 특별한 음식을 가족과 함께 나누고 싶은 사람  
+✅ 쉐프의 창의적인 요리를 경험하고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 비건이나 채식 위주의 식사를 선호하는 사람  
+❎ 매우 간단하고 빠른 식사를 선호하는 사람  
+❎ 가격 대비 양에 민감한 사람  
+❎ 전통적인 한식을 고집하는 사람  
+❎ 소음이 적은 곳에서 밥을 먹고 싶어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1009,9 +1913,42 @@
           <t>서울 도봉구 노해로 341 117호 창동, 신원리베르텔)</t>
         </is>
       </c>
+      <c r="E29" t="n">
+        <v>127.032678842376</v>
+      </c>
+      <c r="F29" t="n">
+        <v>37.65075007004063</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 38
+"친절해요" - 19
+"기본 안주가 좋아요" - 15
+"특별한 메뉴가 있어요" - 14
+"대화하기 좋아요" - 10
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요! 😀  
+✅ 다양한 해산물 및 다양한 요리를 즐기는 사람  
+✅ 신선한 재료와 손맛을 중요시하는 사람  
+✅ 유쾌하고 친절한 서비스에 가치를 두는 사람  
+✅ 특별한 경험을 추구하는 미식가  
+✅ 예약할 수 있는 유명한 장소를 찾아다니는 사람  
+😭 이런 사람들께는 추천하지 않아요! 😭  
+❎ 해산물을 싫어하거나 먹을 수 없는 사람  
+❎ 고급스러운 분위기나 청결한 환경을 선호하는 사람  
+❎ 가격 대비 양이 적다고 느끼는 사람  
+❎ 즉흥적으로 자리를 원하거나 예약이 불편한 사람  
+❎ 빨리 식사를 마치고 싶은 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1029,9 +1966,42 @@
           <t>서울 용산구 한강대로15길 23-6 1층</t>
         </is>
       </c>
+      <c r="E30" t="n">
+        <v>126.9631736</v>
+      </c>
+      <c r="F30" t="n">
+        <v>37.5261206</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 155
+"특별한 메뉴가 있어요" - 102
+"재료가 신선해요" - 70
+"친절해요" - 66
+"가성비가 좋아요" - 60
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 이탈리아 음식을 좋아하는 사람  
+✅ 새로운 맛의 경험을 시도하고 싶은 사람  
+✅ 특별한 날을 기념하고 싶은 사람  
+✅ 서스펜스 있는 웨이팅을 즐기는 사람  
+✅ 독특한 디저트를 찾는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 빠르고 간편한 식사를 선호하는 사람  
+❎ 짭조름하고 느끼한 음식을 싫어하는 사람  
+❎ 예약이 번거롭고 기다리는 것을 싫어하는 사람  
+❎ 특정 다이어트나 알레르기가 있는 사람  
+❎ 가격 대비 양을 중시하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1049,9 +2019,42 @@
           <t>서울 강남구 도산대로45길 14 2층 달리아 다이닝</t>
         </is>
       </c>
+      <c r="E31" t="n">
+        <v>127.0358319</v>
+      </c>
+      <c r="F31" t="n">
+        <v>37.5232455</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 466
+"인테리어가 멋져요" - 349
+"특별한 메뉴가 있어요" - 309
+"재료가 신선해요" - 294
+"친절해요" - 215
+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 비건 음식에 관심이 있는 사람  
+✅ 색다른 식사 경험을 원하는 사람  
+✅ 예쁜 인테리어와 분위기를 즐기는 사람  
+✅ 다양한 메뉴를 시도하는 것을 좋아하는 사람  
+✅ 특별한 날을 기념하고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 육류 요리를 선호하는 사람  
+❎ 음식의 양이 많아야 만족하는 사람  
+❎ 매장에서의 빠른 서빙을 원하는 사람  
+❎ 전통적인 맛을 중시하는 사람  
+❎ 비건 음식에 대한 호기심이 없는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1069,9 +2072,42 @@
           <t>광주 서구 대남대로487번길 14 1, 2층</t>
         </is>
       </c>
+      <c r="E32" t="n">
+        <v>126.8842700221739</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35.15173511788719</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 237
+"재료가 신선해요" - 82
+"친절해요" - 71
+"매장이 청결해요" - 60
+"인테리어가 멋져요" - 34
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 깊고 진한 국물맛을 좋아하는 사람  
+✅ 한우와 같은 신선한 재료를 즐기는 사람  
+✅ 다양한 한식 메뉴를 경험해보고 싶은 사람  
+✅ 곰탕을 비롯한 따뜻한 국물 요리를 선호하는 사람  
+✅ 친구나 가족과 함께 편안하게 식사하고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 청결에 민감한 사람  
+❎ 즉각적인 서비스와 빠른 식사를 원하는 사람  
+❎ 가격에 비해 양을 중시하는 사람  
+❎ 특별한 맛을 기대하는 사람  
+❎ 음식의 가짓수를 중요하게 생각하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1089,9 +2125,42 @@
           <t>서울 강남구 도산대로45길 10-5 1층 EVETT</t>
         </is>
       </c>
+      <c r="E33" t="n">
+        <v>127.0364092</v>
+      </c>
+      <c r="F33" t="n">
+        <v>37.5239257</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"특별한 메뉴가 있어요" - 36
+"음식이 맛있어요" - 31
+"친절해요" - 27
+"재료가 신선해요" - 23
+"특별한 날 가기 좋아요" - 21
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 현대적이면서도 독창적인 한식을 즐기고 싶은 사람  
+✅ 특별한 날을 기념하기 위한 레스토랑을 찾는 사람  
+✅ 미슐랭 스타 레스토랑에서의 특별한 다이닝 경험을 기대하는 사람  
+✅ 소믈리에와의 사전 설명을 통해 음식과 주류의 궁합을 즐기고 싶은 사람  
+✅ 셰프와의 직접적인 교류나 키친 투어에 관심이 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 많은 양의 음식을 원하거나 전통적인 식사를 선호하는 사람  
+❎ 빠르게 식사를 마치고 싶은 사람  
+❎ 음식의 가격 대비 양을 중시하는 사람  
+❎ 특정 메뉴에 대한 고집이 있는 사람  
+❎ 소음이 많은 환경을 싫어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>0</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1109,9 +2178,42 @@
           <t>서울 성동구 성수이로7길 27 1층 105-1호</t>
         </is>
       </c>
+      <c r="E34" t="n">
+        <v>127.053683</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37.5415261</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 851
+"재료가 신선해요" - 435
+"친절해요" - 342
+"양이 많아요" - 303
+"가성비가 좋아요" - 270
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 고기 요리를 좋아하는 사람  
+✅ 다양한 반찬을 즐기는 사람  
+✅ 특별한 식사를 원하고 단체 모임을 계획하는 사람  
+✅ 신선한 재료와 품질 높은 음식을 선호하는 사람  
+✅ 친절한 서비스와 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 매운 음식을 싫어하는 사람  
+❎ 조용하고 아늑한 분위기를 원하는 사람  
+❎ 금요일, 주말에 붐비는 장소를 피하고 싶은 사람  
+❎ 가격 대비 양을 따지는 사람  
+❎ 이미 방문한 식당에 대한 변화를 기대하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1129,9 +2231,42 @@
           <t>서울 강남구 도산대로17길 10 1층 모던오뎅</t>
         </is>
       </c>
+      <c r="E35" t="n">
+        <v>127.0249587</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37.5194131</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 197
+"특별한 메뉴가 있어요" - 111
+"친절해요" - 78
+"재료가 신선해요" - 59
+"인테리어가 멋져요" - 34
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 수제 요리와 오뎅을 좋아하는 사람  
+✅ 분위기 좋은 장소에서 대화를 즐기고 싶은 사람  
+✅ 다양한 사이드 메뉴를 시도해보고 싶은 사람  
+✅ 친절한 서비스에서 만족을 느끼는 사람  
+✅ 소규모 모임을 계획하고 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많고 푸짐한 식사를 원하는 사람  
+❎ 오뎅 외에 요리 메뉴의 빠른 제공을 기대하는 사람  
+❎ 특정한 맛을 원하고 실망이 큰 사람  
+❎ 가격 대비 만족도를 중요시하는 사람  
+❎ 시끄러운 분위기를 싫어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1149,9 +2284,42 @@
           <t>서울 강남구 논현로159길 46-6 1층</t>
         </is>
       </c>
+      <c r="E36" t="n">
+        <v>127.0247612</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37.5226233</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 74
+"친절해요" - 43
+"특별한 메뉴가 있어요" - 40
+"인테리어가 멋져요" - 39
+"특별한 날 가기 좋아요" - 25
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀  
+✅ 맛있는 음식과 고유한 와인 페어링을 즐기는 사람  
+✅ 아늑하고 분위기 있는 공간에서 식사하고 싶은 사람  
+✅ 강아지와 함께하는 식사를 좋아하는 사람  
+✅ 서비스와 친절함을 중요하게 생각하는 사람  
+✅ 사람들과 대화하며 여유로운 시간을 보내고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많고 배부른 식사를 원하시는 분  
+❎ 조용하고 번잡함 없는 분위기를 선호하는 분  
+❎ 일상적이고 가벼운 간편식을 찾으시는 분  
+❎ 와인에 대해 잘 모르거나 관심이 없는 분  
+❎ 가격 대비 양을 중시하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1169,9 +2337,42 @@
           <t>서울 종로구 자하문로6길 6 2, 3층</t>
         </is>
       </c>
+      <c r="E37" t="n">
+        <v>126.972536</v>
+      </c>
+      <c r="F37" t="n">
+        <v>37.5779785</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 222
+"재료가 신선해요" - 115
+"친절해요" - 111
+"특별한 메뉴가 있어요" - 78
+"인테리어가 멋져요" - 72
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 웨이팅을 감수할 준비가 된 미식가  
+✅ 친구 및 가족과 함께 특별한 외식을 즐기고 싶은 사람  
+✅ 다양한 메뉴를 시도하는 것을 좋아하는 사람  
+✅ 친절한 서비스에 가치를 두는 사람  
+✅ 유명 셰프와의 소통을 즐기고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 기다리는 시간을 싫어하는 사람  
+❎ 자극적인 맛을 선호하는 사람  
+❎ 소량의 음식을 선호하는 사람  
+❎ 빠른 시간 내에 식사를 마치고 싶은 사람  
+❎ 가성비를 중시하여 가격에 민감한 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1189,9 +2390,42 @@
           <t>서울 강남구 도산대로 457 3층</t>
         </is>
       </c>
+      <c r="E38" t="n">
+        <v>127.046587</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37.524423</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 175
+"친절해요" - 137
+"특별한 메뉴가 있어요" - 128
+"특별한 날 가기 좋아요" - 110
+"재료가 신선해요" - 73
+</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 현대적인 한식 재해석에 관심이 있는 사람  
+✅ 특별한 분위기에서 기념일을 축하하고 싶은 사람  
+✅ 셰프의 요리를 직접 경험하고 싶은 사람  
+✅ 다양한 맛의 조화를 즐기는 미식가  
+✅ 친절한 서비스와 세심한 배려를 중요시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많고 푸짐한 식사를 원하는 사람  
+❎ 간단한 점심 메뉴를 선호하는 사람  
+❎ 빠른 식사를 원하거나 시간이 부족한 사람  
+❎ 특정 인기 메뉴를 기대하는 사람  
+❎ 가성비를 중시하여 비싼 식사를 부담스러워하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>0</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1209,9 +2443,36 @@
           <t>서울 강남구 압구정동 압구정로 165</t>
         </is>
       </c>
+      <c r="E39" t="n">
+        <v>127.0274996</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37.5273407</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 면 요리를 좋아하는 사람  
+✅ 해산물과 국물 요리를 즐기는 사람  
+✅ 오뎅 한 접시로 우동을 더욱 맛있게 먹고 싶은 사람  
+✅ 특별한 점심 시간을 원하시는 분  
+✅ 근처에서 가볍게 식사할 장소를 찾는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 정통 일본 다이닝을 기대하는 사람  
+❎ 무겁고 칼로리가 높은 음식을 선호하는 사람  
+❎ 대화가 필요 없는 조용한 식사를 원하시는 분  
+❎ 두꺼운 면이나 진한 국물을 좋아하는 사람  
+❎ 접시에 꽉 찬 푸짐한 양을 찾는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1229,9 +2490,42 @@
           <t>제주 제주시 조천읍 남조로 1781</t>
         </is>
       </c>
+      <c r="E40" t="n">
+        <v>126.6459368880007</v>
+      </c>
+      <c r="F40" t="n">
+        <v>33.51640963331459</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 153
+"재료가 신선해요" - 91
+"매장이 넓어요" - 66
+"친절해요" - 59
+"특별한 메뉴가 있어요" - 57
+</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀
+✅ 수제버거와 해산물 요리를 좋아하는 사람  
+✅ 제주 여행 중 독특한 맛집을 찾고 있는 사람  
+✅ 자연 경관을 즐기며 식사를 하고 싶은 사람  
+✅ 오픈 키친과 셰프와의 소통을 선호하는 사람  
+✅ 여유로운 분위기 속에서 식사하며 산책을 즐기고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 가격 대비 가성비를 중요시하는 사람  
+❎ 빠른 식사 시간을 원하거나 분주한 식사를 선호하는 사람  
+❎ 음료가 포함된 식사를 찾는 사람  
+❎ 예약 없이 즉흥적으로 방문하려는 사람  
+❎ 간단한 음식을 선호하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1249,9 +2543,42 @@
           <t>경기 안산시 단원구 광덕2로 163-11 111호(고잔동, 21세기빌딩) 엘레베이터 맞은편</t>
         </is>
       </c>
+      <c r="E41" t="n">
+        <v>126.8284105</v>
+      </c>
+      <c r="F41" t="n">
+        <v>37.3103788</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 118
+"특별한 메뉴가 있어요" - 97
+"친절해요" - 76
+"인테리어가 멋져요" - 75
+"재료가 신선해요" - 66
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 특별한 날을 축하하고 싶은 사람
+✅ 다양한 와인과 음식 페어링을 즐기고 싶은 사람
+✅ 창의적인 요리 경험을 찾는 사람
+✅ 고급스러운 분위기에서 여유로운 식사를 하고 싶은 사람
+✅ 새로운 맛과 메뉴에 호기심이 많은 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 양이 많고 푸짐한 식사를 선호하는 사람
+❎ 빠른 식사를 원하거나 서두르는 사람
+❎ 특정한 오리지널 메뉴를 기대하는 사람
+❎ 큰 인원을 수용할 수 있는 장소를 찾는 사람
+❎ 전통적인 맛을 고집하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>0</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1269,9 +2596,42 @@
           <t>서울 중구 마른내로 11-10 3층</t>
         </is>
       </c>
+      <c r="E42" t="n">
+        <v>126.9897922</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37.5642386</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 179
+"특별한 메뉴가 있어요" - 120
+"친절해요" - 65
+"술이 다양해요" - 59
+"기본 안주가 좋아요" - 39
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀
+✅ 다양한 나물 요리를 즐기는 사람  
+✅ 대화와 분위기를 중시하는 사람  
+✅ 기대 이상의 양을 원하며 많이 먹고 싶어하는 사람  
+✅ 방송에 나오는 셰프의 요리를 경험해 보고 싶은 사람  
+✅ 다이닝 경험을 통해 특별한 맛을 알리고 싶은 미식가  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 청결과 위생이 가장 중요하게 여기는 사람  
+❎ 셰프 직접 요리를 원하지만 그가 없는 상황을 감당하지 못하는 사람  
+❎ 개인적인 테이블 서비스 및 배려를 기대하는 사람  
+❎ 비싸지만 그만한 가치를 느끼지 못하는 사람  
+❎ 음식의 맛보다 가성비를 우선시하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>0</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1289,9 +2649,42 @@
           <t>서울 마포구 성미산로27길 71 1층</t>
         </is>
       </c>
+      <c r="E43" t="n">
+        <v>126.9201141</v>
+      </c>
+      <c r="F43" t="n">
+        <v>37.5663835</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 106
+"재료가 신선해요" - 86
+"친절해요" - 72
+"양이 많아요" - 65
+"특별한 메뉴가 있어요" - 53
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 신선하고 맛있는 햄버거를 원하는 사람  
+✅ 다양한 사이드 메뉴와 함께 즐기고 싶은 사람  
+✅ 친절한 서비스와 아기자기한 분위기를 선호하는 사람  
+✅ 해산물 요리를 좋아하는 사람  
+✅ 강아지와 함께 방문 가능한 식당을 찾는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 가격 대비 양을 중시하는 사람  
+❎ 튀김 음식이 너무 기름지거나 느끼한 것을 싫어하는 사람  
+❎ 유명한 브랜드나 체인점을 선호하는 사람  
+❎ 자리를 미리 예약하지 않고 즉흥적으로 식사하고 싶은 사람  
+❎ 조용한 환경에서 식사하고 싶어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>0</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1309,9 +2702,42 @@
           <t>서울 용산구 한남대로27가길 32 지2층</t>
         </is>
       </c>
+      <c r="E44" t="n">
+        <v>127.002558</v>
+      </c>
+      <c r="F44" t="n">
+        <v>37.5381284</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 12
+"친절해요" - 8
+"특별한 메뉴가 있어요" - 8
+"인테리어가 멋져요" - 5
+"대화하기 좋아요" - 5
+</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀
+✅ 다양한 와인과 함께 식사를 즐기고 싶은 사람  
+✅ 현대적인 한식을 경험하고 싶은 사람  
+✅ 특별한 날에 아늑한 분위기에서 식사를 원하는 사람  
+✅ 창의적이고 특색 있는 메뉴에 관심이 있는 사람  
+✅ 친절한 서비스와 따뜻한 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많은 식사를 선호하는 사람  
+❎ 전통적인 한식을 찾는 사람  
+❎ 가격에 민감한 사람  
+❎ 즉흥적으로 예약을 하려는 사람  
+❎ 붐비는 환경에서 식사하는 것을 싫어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1329,9 +2755,42 @@
           <t>서울 강남구 봉은사로4길 24 1층</t>
         </is>
       </c>
+      <c r="E45" t="n">
+        <v>127.026457</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37.5032906</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 222
+"재료가 신선해요" - 177
+"친절해요" - 120
+"특별한 메뉴가 있어요" - 80
+"매장이 청결해요" - 62
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 건강한 음식을 선호하는 사람  
+✅ 신선한 재료와 깔끔한 맛을 중요시하는 사람  
+✅ 친구나 가족과 함께 여유로운 식사를 즐기고 싶은 사람  
+✅ 직원의 친절함과 서비스 품질을 중요하게 생각하는 사람  
+✅ 다양한 사이드 메뉴를 경험하고 싶은 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 간편하고 빠른 식사를 원하는 사람  
+❎ 혼잡한 시간대에 한 끼를 해결하려는 사람  
+❎ 음식의 양이 많기만을 원하는 사람  
+❎ 강한 양념이나 자극적인 맛을 선호하는 사람  
+❎ 예약 없이 즉흥적으로 방문하고 싶어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1349,9 +2808,42 @@
           <t>서울 강남구 선릉로162길 16 2층</t>
         </is>
       </c>
+      <c r="E46" t="n">
+        <v>127.0417123</v>
+      </c>
+      <c r="F46" t="n">
+        <v>37.5267028</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 115
+"친절해요" - 76
+"특별한 메뉴가 있어요" - 70
+"특별한 날 가기 좋아요" - 64
+"매장이 청결해요" - 45
+</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 특별한 날을 기념하고 싶은 사람  
+✅ 다양한 맛을 경험하고 싶어하는 사람  
+✅ 파인다이닝에 대한 관심이 많은 사람  
+✅ 정성스럽게 준비된 코스 요리에 감동하는 사람  
+✅ 친절한 서비스와 분위기를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 서두르며 빠른 식사를 원하는 사람  
+❎ 가성비를 중요시하는 사람  
+❎ 간단하고 소박한 음식을 선호하는 사람  
+❎ 비슷한 맛의 음식을 선호하는 사람  
+❎ 시끄러운 분위기를 싫어하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1369,9 +2861,42 @@
           <t>서울 마포구 백범로16안길 15-1 1층</t>
         </is>
       </c>
+      <c r="E47" t="n">
+        <v>126.9430157</v>
+      </c>
+      <c r="F47" t="n">
+        <v>37.5465037</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 169
+"재료가 신선해요" - 95
+"특별한 메뉴가 있어요" - 76
+"인테리어가 멋져요" - 64
+"친절해요" - 48
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 야외에서 피크닉 같은 분위기를 즐기고 싶은 사람  
+✅ 다양한 종류의 피자를 시도해보고 싶은 사람  
+✅ 특별한 맛의 조합에 흥미가 있는 사람  
+✅ 친절한 서비스와 따뜻한 분위기를 선호하는 사람  
+✅ 자신만의 독특한 음식을 찾고 있는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 양이 많은 식사를 원하거나 배불리 먹고 싶은 사람  
+❎ 조용한 환경에서 식사하는 것을 선호하는 사람  
+❎ 빠르게 서빙되는 음식을 원하는 사람  
+❎ 특정한 메뉴에 대한 고집이 있는 사람  
+❎ 대규모 인원이 함께 가기 좋은 공간을 찾는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>0</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1389,9 +2914,42 @@
           <t>서울 용산구 한남대로27가길 15 2층 군몽</t>
         </is>
       </c>
+      <c r="E48" t="n">
+        <v>127.0029398</v>
+      </c>
+      <c r="F48" t="n">
+        <v>37.5373926</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 55
+"친절해요" - 32
+"재료가 신선해요" - 31
+"특별한 메뉴가 있어요" - 28
+"인테리어가 멋져요" - 25
+</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 편안하고 아늑한 분위기에서 식사하고 싶은 사람  
+✅ 고급스러운 스테이크를 즐기고 싶은 사람  
+✅ 친절한 서비스와 음식 설명을 중요하게 여기는 사람  
+✅ 특별한 날, 기념일에 특별한 경험을 원하시는 분  
+✅ 다양한 메뉴를 경험해보고 싶은 미식가  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 가격에 민감하고 가성비를 중시하는 사람  
+❎ 간편하고 빠른 식사를 원하는 사람  
+❎ 고기를 많이 먹고 싶은 사람  
+❎ 시끄러운 장소에서의 식사를 피하고 싶은 사람  
+❎ 즉흥적인 방문을 선호하는 사람  </t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1409,9 +2967,42 @@
           <t>서울 중구 퇴계로 411 1층 디핀</t>
         </is>
       </c>
+      <c r="E49" t="n">
+        <v>127.0172172</v>
+      </c>
+      <c r="F49" t="n">
+        <v>37.5659388</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 96
+"친절해요" - 59
+"특별한 메뉴가 있어요" - 50
+"특별한 날 가기 좋아요" - 41
+"인테리어가 멋져요" - 27
+</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>😀 이런 사람들께 추천해요!😀
+✅ 다양한 맛을 경험하고 싶은 미식가
+✅ 특별한 분위기에서 소중한 시간을 보내고 싶은 사람
+✅ 친절한 서비스와 정성 가득한 음식을 중시하는 사람
+✅ 친구나 가족과 함께 특별한 모임을 기획하는 사람
+✅ 음식과 와인 페어링을 즐기는 사람
+😭 이런 사람들께는 추천하지 않아요!😭
+❎ 가격 대비 만족도를 중시하는 사람
+❎ 서비스의 일관성을 중요하게 생각하는 사람
+❎ 특정한 셰프의 요리를 기대하는 사람
+❎ 길게 대기하거나 불편한 예약 시스템을 싫어하는 사람
+❎ 간단하고 빠른 식사를 원하는 사람</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>0</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1427,6 +3018,39 @@
       <c r="D50" t="inlineStr">
         <is>
           <t>서울 종로구 새문안로2길 10 디팰리스 B1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>126.9720305</v>
+      </c>
+      <c r="F50" t="n">
+        <v>37.5685747</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">✨이런 점이 좋았어요!✨
+"음식이 맛있어요" - 141
+"재료가 신선해요" - 102
+"친절해요" - 63
+"인테리어가 멋져요" - 59
+"특별한 메뉴가 있어요" - 52
+</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
+✅ 신선한 해산물을 좋아하는 사람  
+✅ 조용하고 아늑한 분위기에서 식사하고 싶은 사람  
+✅ 맛있는 한식을 선호하는 사람  
+✅ 특별한 날을 기념하고 싶은 사람  
+✅ 친절한 서비스와 좋은 인테리어를 중시하는 사람  
+😭 이런 사람들께는 추천하지 않아요!😭  
+❎ 비린내에 예민한 사람  
+❎ 양이 많은 식사를 원하지 않는 사람  
+❎ 가격이 부담스러운 사람  
+❎ 친절하지 않은 서비스에 민감한 사람  
+❎ 빠른 식사를 선호하는 사람  </t>
         </is>
       </c>
     </row>

--- a/team3/excel.xlsx
+++ b/team3/excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>평가</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>chef_name</t>
         </is>
       </c>
     </row>
@@ -527,6 +532,11 @@
 ❎ 조용하고 분위기가 엄숙한 식사를 선호하는 사람</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>오세득</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -553,11 +563,7 @@
       <c r="F3" t="n">
         <v>37.5182989</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
@@ -574,6 +580,11 @@
 ❎ 조용하고 빠른 서비스를 선호하는 사람  </t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>원투쓰리</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -627,6 +638,11 @@
 ❎ 불친절한 경험을 피하고자 하는 사람  </t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>캠핑맨</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -678,6 +694,11 @@
 ❎ 예약이 어려운 것을 싫어하는 사람  
 ❎ 특정 메뉴를 빨리 먹고 싶은 사람  
 ❎ 맵거나 간이 센 음식을 싫어하는 사람</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>최강록</t>
         </is>
       </c>
     </row>
@@ -733,6 +754,11 @@
 ❎ 조용한 분위기를 선호하는 사람</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>만찢남</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -786,6 +812,11 @@
 ❎ 전통적인 방식의 요리를 기대하는 사람  </t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>통닭맨</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -839,6 +870,11 @@
 ❎ 식사 중 소음에 민감한 사람  </t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>남정석</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -892,6 +928,11 @@
 ❎ 일상적인 식사를 원하는 분  </t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>장호준</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -945,6 +986,11 @@
 ❎ 복잡한 메뉴에서 선택하기 어려워하는 사람  </t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>조은주</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -998,6 +1044,11 @@
 ❎ 변화를 꺼리는 사람</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>안유성</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1051,6 +1102,11 @@
 ❎ 간단하고 빠른 식사를 원하는 사람  </t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>나폴리 맛피아</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1104,6 +1160,11 @@
 ❎ 가성비를 중시하며 가격 대비 양을 생각하는 사람  </t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>빙그레</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1157,6 +1218,11 @@
 ❎ 빠른 식사를 원하는 바쁜 사람</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>여경래</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1210,6 +1276,11 @@
 ❎ 소음이 없는 조용한 분위기를 선호하는 사람  </t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>최현석</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1263,6 +1334,11 @@
 ❎ 불친절한 서비스에 민감한 사람</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>여경래</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1314,6 +1390,11 @@
 ❎ 다양한 메뉴를 한 번에 경험하고 싶은 사람  
 ❎ 한정된 시간 내에 빠른 식사를 원하는 사람  
 ❎ 딤섬 외 다른 메뉴에 대한 기대가 큰 사람  </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>정지선</t>
         </is>
       </c>
     </row>
@@ -1369,6 +1450,11 @@
 ❎ 고급스러운 분위기보다는 캐주얼한 서비스를 선호하는 사람</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>히든천재</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1422,6 +1508,11 @@
 ❎ 조용하고 쾌적한 공간을 원하는 사람  </t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>간귀</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1475,6 +1566,11 @@
 ❎ 특정한 식당의 유명 메뉴를 꼭 먹고 싶어하는 사람  </t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>조지현</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1528,6 +1624,11 @@
 ❎ 미성년자와 함께하는 가족 식사 계획을 세우는 사람  </t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>코리안 타코킹</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1579,6 +1680,11 @@
 ❎ 가격 대비 양이 많아야 만족하는 사람  
 ❎ 즉흥적인 예약을 선호하고 싶으신 분  
 ❎ 비싼 가격에 대한 부담감을 느끼는 사람  </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>방기수</t>
         </is>
       </c>
     </row>
@@ -1634,6 +1740,11 @@
 ❎ 짜고 맵고 자극적인 음식만 찾는 사람</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>정지선</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1687,6 +1798,11 @@
 ❎ 즉흥적인 지역 탐방을 즐기는 사람  </t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>장호준</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1740,6 +1856,11 @@
 ❎ 소음이 덜한 조용한 분위기를 원하는 사람  </t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>요리하는 돌아이</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1791,6 +1912,11 @@
 ❎ 빠르고 간편한 식사를 찾는 사람  
 ❎ 특정 재료에 대한 알레르기가 있는 사람  
 ❎ 조용한 환경에서 식사를 원하는 사람  </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>안산 백종원</t>
         </is>
       </c>
     </row>
@@ -1846,6 +1972,11 @@
 ❎ 마감 시간 전에 서두르는 걸 싫어하는 사람</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>김도윤</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1872,11 +2003,7 @@
       <c r="F28" t="n">
         <v>37.56172309508165</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
@@ -1891,6 +2018,11 @@
 ❎ 가격 대비 양에 민감한 사람  
 ❎ 전통적인 한식을 고집하는 사람  
 ❎ 소음이 적은 곳에서 밥을 먹고 싶어하는 사람  </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>본업도 잘하는 남자</t>
         </is>
       </c>
     </row>
@@ -1946,6 +2078,11 @@
 ❎ 빨리 식사를 마치고 싶은 사람  </t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>이모카세 1호</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1999,6 +2136,11 @@
 ❎ 가격 대비 양을 중시하는 사람</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>파브리</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2052,6 +2194,11 @@
 ❎ 비건 음식에 대한 호기심이 없는 사람  </t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>최현석</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2105,6 +2252,11 @@
 ❎ 음식의 가짓수를 중요하게 생각하는 사람  </t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>안유성</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2158,6 +2310,11 @@
 ❎ 소음이 많은 환경을 싫어하는 사람  </t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>조셉 리저우드</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2211,6 +2368,11 @@
 ❎ 이미 방문한 식당에 대한 변화를 기대하는 사람</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4.8.100</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2264,6 +2426,11 @@
 ❎ 시끄러운 분위기를 싫어하는 사람  </t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>장호준</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2317,6 +2484,11 @@
 ❎ 가격 대비 양을 중시하는 사람</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>돌아온 소년</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2370,6 +2542,11 @@
 ❎ 가성비를 중시하여 가격에 민감한 사람  </t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>철가방 요리사</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2423,6 +2600,11 @@
 ❎ 가성비를 중시하여 비싼 식사를 부담스러워하는 사람  </t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>최현석</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2449,11 +2631,7 @@
       <c r="F39" t="n">
         <v>37.5273407</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">😀 이런 사람들께 추천해요!😀  
@@ -2470,6 +2648,11 @@
 ❎ 접시에 꽉 찬 푸짐한 양을 찾는 사람  </t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>장호준</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2521,6 +2704,11 @@
 ❎ 음료가 포함된 식사를 찾는 사람  
 ❎ 예약 없이 즉흥적으로 방문하려는 사람  
 ❎ 간단한 음식을 선호하는 사람  </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>오세득</t>
         </is>
       </c>
     </row>
@@ -2576,6 +2764,11 @@
 ❎ 전통적인 맛을 고집하는 사람</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>안산 백종원</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2629,6 +2822,11 @@
 ❎ 음식의 맛보다 가성비를 우선시하는 사람  </t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>장사천재 조사장</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2682,6 +2880,11 @@
 ❎ 조용한 환경에서 식사하고 싶어하는 사람  </t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>고프로</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2735,6 +2938,11 @@
 ❎ 붐비는 환경에서 식사하는 것을 싫어하는 사람  </t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>셀럽의 셰프</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2788,6 +2996,11 @@
 ❎ 예약 없이 즉흥적으로 방문하고 싶어하는 사람  </t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>캠핑맨</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2841,6 +3054,11 @@
 ❎ 시끄러운 분위기를 싫어하는 사람  </t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>트리플스타</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2894,6 +3112,11 @@
 ❎ 대규모 인원이 함께 가기 좋은 공간을 찾는 사람  </t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>평가절하</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2945,6 +3168,11 @@
 ❎ 고기를 많이 먹고 싶은 사람  
 ❎ 시끄러운 장소에서의 식사를 피하고 싶은 사람  
 ❎ 즉흥적인 방문을 선호하는 사람  </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>고기깡패</t>
         </is>
       </c>
     </row>
@@ -3000,6 +3228,11 @@
 ❎ 간단하고 빠른 식사를 원하는 사람</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>요리하는 돌아이</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3053,6 +3286,11 @@
 ❎ 빠른 식사를 선호하는 사람  </t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>장호준</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
